--- a/medicine/Pharmacie/Léon_Velluz/Léon_Velluz.xlsx
+++ b/medicine/Pharmacie/Léon_Velluz/Léon_Velluz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Antoine Velluz est un chimiste, pharmacien et historien des sciences français né le 31 juillet 1904 à Bourg-en-Bresse et mort le 28 mai 1981 à Paris 5e[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Antoine Velluz est un chimiste, pharmacien et historien des sciences français né le 31 juillet 1904 à Bourg-en-Bresse et mort le 28 mai 1981 à Paris 5e.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en sciences physiques de l'Université de Lyon en 1928 après avoir soutenu une thèse sous la direction de Victor Grignard, Léon Velluz a été président de la Société chimique de France de 1955 à 1957 et est devenu académicien des sciences en 1961. 
-Il est l'auteur de biographies bien documentées d'Antoine Lavoisier, de Marcellin Berthelot et de Joseph Priestley, ainsi que d'une série d'articles sur d'autres chimistes[4].
+Il est l'auteur de biographies bien documentées d'Antoine Lavoisier, de Marcellin Berthelot et de Joseph Priestley, ainsi que d'une série d'articles sur d'autres chimistes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Propriétés biochimiques des fonctions éthyléniques.
 Cryptotoxines, avec Hyacinthe Vincent.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Docteur en sciences physiques, 1928.
 Professeur agrégé du Val-de-Grâce, 1931.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur.</t>
         </is>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Velluz</t>
+          <t>Léon_Velluz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Recherches sur les propriétés biochimiques des liaisons éthyléniques, thèse de doctorat, sous la direction de Victor Grignard, Université de Lyon, 1928.
 Glucides et spécificité microbienne, 1933.
